--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_5_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_5_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1912660.97814008</v>
+        <v>1947979.733465848</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426806.9758914463</v>
+        <v>426806.9758914466</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7753703.265810431</v>
+        <v>7753703.265810432</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>50.29171516770226</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>241.0142888776591</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>80.83011447495538</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.0817264605106</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>43.43230196975337</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>18.29749587628863</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>40.47627913313511</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>241.0142888776591</v>
@@ -1025,16 +1025,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>55.2611541336429</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>206.6856389338103</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>80.83011447495538</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>208.6957123392361</v>
       </c>
     </row>
     <row r="9">
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1229,13 +1229,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.085549827839766</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>131.0150542691797</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1335,7 +1335,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>262.2966887403318</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>109.7909488017997</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.39969274597628</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S11" t="n">
         <v>179.4658614532381</v>
@@ -1426,19 +1426,19 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,7 +1451,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>79.82222373250251</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.07339698405353</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S12" t="n">
         <v>158.7937537960548</v>
       </c>
       <c r="T12" t="n">
-        <v>104.4814346654897</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U12" t="n">
         <v>225.8957288909827</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>108.4992286468001</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>74.15307578127785</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>94.67876730538855</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.39969274597628</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S14" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.4184586216305</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>142.2697493893929</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>65.21550862258337</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1703,7 +1703,7 @@
         <v>136.64958867533</v>
       </c>
       <c r="H15" t="n">
-        <v>47.29162376596719</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>65.50479675552441</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.07339698405353</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>158.7937537960548</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>132.2037233045428</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H16" t="n">
-        <v>80.79258128802716</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>58.28272660856686</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>202.3252544558716</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,10 +1940,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>65.90747854024177</v>
       </c>
       <c r="I18" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S18" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>197.3677099213027</v>
       </c>
       <c r="U18" t="n">
-        <v>67.50465687964518</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>47.61011138094006</v>
+        <v>43.5747823000109</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T19" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>179.4658614532381</v>
+        <v>175.0779260042926</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>284.1252194627403</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2162,10 +2162,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>31.36206477090696</v>
       </c>
       <c r="D21" t="n">
-        <v>111.6321872928792</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2177,7 +2177,7 @@
         <v>136.64958867533</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>33.92463475916934</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>108.3027291048315</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>284.6182089429866</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>30.71286338238961</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2411,13 +2411,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>105.5335559456492</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="I24" t="n">
-        <v>7.353154002015169</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>142.274844397543</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>157.0547409226243</v>
+        <v>145.4297492889999</v>
       </c>
       <c r="I25" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>92.86225202487162</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>160.3464122475373</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5335559456492</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S27" t="n">
-        <v>154.0969082539765</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T27" t="n">
         <v>197.3677099213027</v>
@@ -2766,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>13.08993799274022</v>
       </c>
       <c r="U28" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>47.47529300550314</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>79.10315506257375</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U29" t="n">
-        <v>47.69615615758161</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2885,10 +2885,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5335559456492</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>17.44731957864654</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T30" t="n">
         <v>197.3677099213027</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2994,25 +2994,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.44704598407326</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>113.9419028299689</v>
+        <v>74.15307578127785</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U32" t="n">
-        <v>81.71269246588167</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>297.2035085402405</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3122,13 +3122,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>43.76331341951682</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>57.07339698405355</v>
       </c>
       <c r="S33" t="n">
-        <v>158.7937537960548</v>
+        <v>0.4026817847175834</v>
       </c>
       <c r="T33" t="n">
         <v>197.3677099213027</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>47.47529300550314</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3246,10 +3246,10 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>13.08993799274016</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,25 +3268,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>262.6361215641765</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4184586216305</v>
+        <v>170.6197170968316</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3350,7 +3350,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>107.8189881592314</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>17.44731957864654</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3429,19 +3429,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U37" t="n">
-        <v>269.875546933712</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>56.95166885946595</v>
       </c>
     </row>
     <row r="38">
@@ -3505,13 +3505,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>230.9533215402661</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>68.1862881186379</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3559,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3593,13 +3593,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>136.64958867533</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>52.18293713757069</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S39" t="n">
-        <v>122.9808755242954</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T39" t="n">
         <v>197.3677099213027</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>115.17793630079</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>188.3415416299535</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>206.673661096694</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>323.8330645744085</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S42" t="n">
         <v>158.7937537960548</v>
@@ -3881,13 +3881,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>44.8437521879864</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>108.2912514701849</v>
       </c>
     </row>
     <row r="43">
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>16.00101197885774</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>47.23959131629395</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3979,10 +3979,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>26.73110927253575</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>90.51206582944602</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4070,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>43.76331341951682</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>158.7937537960548</v>
+        <v>122.9808755242954</v>
       </c>
       <c r="T45" t="n">
         <v>197.3677099213027</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>58.17905982880328</v>
       </c>
       <c r="G46" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H46" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>47.55828155274814</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>104.5536560184564</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C2" t="n">
-        <v>104.5536560184564</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D2" t="n">
-        <v>104.5536560184564</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E2" t="n">
-        <v>53.75394372784808</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4363,19 +4363,19 @@
         <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
+        <v>591.4512093066566</v>
+      </c>
+      <c r="V2" t="n">
         <v>348.0024326625565</v>
       </c>
-      <c r="V2" t="n">
-        <v>104.5536560184564</v>
-      </c>
       <c r="W2" t="n">
-        <v>104.5536560184564</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X2" t="n">
-        <v>104.5536560184564</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="Y2" t="n">
-        <v>104.5536560184564</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>852.8634924192114</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="C3" t="n">
-        <v>678.4104631380844</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="D3" t="n">
-        <v>529.4760534768332</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="E3" t="n">
-        <v>370.2385984713777</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F3" t="n">
         <v>223.7040404982626</v>
@@ -4415,13 +4415,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>590.7929957092509</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>382.9414955037181</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
         <v>19.28114311021272</v>
@@ -4530,10 +4530,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>315.6850394389064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C5" t="n">
-        <v>315.6850394389064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D5" t="n">
-        <v>315.6850394389064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E5" t="n">
-        <v>315.6850394389064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
         <v>31.35113235729608</v>
@@ -4603,16 +4603,16 @@
         <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X5" t="n">
-        <v>559.1338160830064</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="Y5" t="n">
-        <v>559.1338160830064</v>
+        <v>72.23626279480629</v>
       </c>
     </row>
     <row r="6">
@@ -4649,16 +4649,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O6" t="n">
         <v>964.0571555106362</v>
@@ -4673,22 +4673,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U6" t="n">
-        <v>431.4643392632165</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V6" t="n">
-        <v>431.4643392632165</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="W6" t="n">
-        <v>431.4643392632165</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="X6" t="n">
-        <v>431.4643392632165</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="Y6" t="n">
         <v>223.7040404982626</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4746,31 +4746,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>266.3558523848238</v>
+        <v>753.253405673024</v>
       </c>
       <c r="C8" t="n">
-        <v>266.3558523848238</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="D8" t="n">
         <v>266.3558523848238</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>509.8046290289238</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>509.8046290289238</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>509.8046290289238</v>
+        <v>753.253405673024</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>416.1069178844125</v>
+        <v>587.3567013424552</v>
       </c>
       <c r="C9" t="n">
-        <v>416.1069178844125</v>
+        <v>587.3567013424552</v>
       </c>
       <c r="D9" t="n">
-        <v>416.1069178844125</v>
+        <v>438.4222916812039</v>
       </c>
       <c r="E9" t="n">
-        <v>256.869462878957</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="F9" t="n">
-        <v>110.334904905842</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>962.9606405330203</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>789.5432959836892</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3567013424552</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3567013424552</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3567013424552</v>
       </c>
       <c r="W9" t="n">
-        <v>831.7187168548992</v>
+        <v>587.3567013424552</v>
       </c>
       <c r="X9" t="n">
-        <v>623.8672166493664</v>
+        <v>587.3567013424552</v>
       </c>
       <c r="Y9" t="n">
-        <v>416.1069178844125</v>
+        <v>587.3567013424552</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
         <v>41.77557929797318</v>
@@ -4983,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="R10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="S10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="T10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>643.2532067163627</v>
+        <v>858.1695216986611</v>
       </c>
       <c r="C11" t="n">
-        <v>643.2532067163627</v>
+        <v>489.2070047582494</v>
       </c>
       <c r="D11" t="n">
-        <v>643.2532067163627</v>
+        <v>489.2070047582494</v>
       </c>
       <c r="E11" t="n">
-        <v>378.3070564736033</v>
+        <v>489.2070047582494</v>
       </c>
       <c r="F11" t="n">
         <v>378.3070564736033</v>
@@ -5044,16 +5044,16 @@
         <v>145.966048569732</v>
       </c>
       <c r="K11" t="n">
-        <v>412.3079679977592</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L11" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540044</v>
       </c>
       <c r="M11" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N11" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O11" t="n">
         <v>2037.925350935285</v>
@@ -5074,19 +5074,19 @@
         <v>1971.003775293977</v>
       </c>
       <c r="U11" t="n">
-        <v>1717.224081305859</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="V11" t="n">
-        <v>1386.161193962289</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="W11" t="n">
-        <v>1033.392538692174</v>
+        <v>1618.235120023863</v>
       </c>
       <c r="X11" t="n">
-        <v>1033.392538692174</v>
+        <v>1244.769361762783</v>
       </c>
       <c r="Y11" t="n">
-        <v>643.2532067163627</v>
+        <v>1244.769361762783</v>
       </c>
     </row>
     <row r="12">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>816.0090920043505</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C12" t="n">
         <v>641.5560627232235</v>
@@ -5120,25 +5120,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J12" t="n">
-        <v>81.93751399838814</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K12" t="n">
-        <v>318.2287647883252</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L12" t="n">
-        <v>697.3559079137185</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M12" t="n">
-        <v>1191.758623309281</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N12" t="n">
-        <v>1714.953720827627</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O12" t="n">
-        <v>2127.159342346856</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P12" t="n">
-        <v>2440.987626628164</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q12" t="n">
         <v>2440.987626628164</v>
@@ -5150,22 +5150,22 @@
         <v>2222.939999577549</v>
       </c>
       <c r="T12" t="n">
-        <v>2117.403196885135</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U12" t="n">
-        <v>1889.225692954849</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V12" t="n">
-        <v>1654.073584723107</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W12" t="n">
-        <v>1399.836227994905</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X12" t="n">
-        <v>1191.984727789372</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y12" t="n">
-        <v>984.2244290244184</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="13">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>306.3280265662696</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C13" t="n">
-        <v>306.3280265662696</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D13" t="n">
-        <v>306.3280265662696</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E13" t="n">
-        <v>158.4149329838765</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F13" t="n">
         <v>48.81975253256327</v>
@@ -5202,49 +5202,49 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K13" t="n">
-        <v>93.68771932371203</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L13" t="n">
         <v>206.6297039190408</v>
       </c>
       <c r="M13" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N13" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O13" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P13" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q13" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R13" t="n">
-        <v>487.9764913965093</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S13" t="n">
-        <v>487.9764913965093</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T13" t="n">
-        <v>487.9764913965093</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="U13" t="n">
-        <v>487.9764913965093</v>
+        <v>123.7218492813288</v>
       </c>
       <c r="V13" t="n">
-        <v>487.9764913965093</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="W13" t="n">
-        <v>487.9764913965093</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X13" t="n">
-        <v>487.9764913965093</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y13" t="n">
-        <v>487.9764913965093</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>913.7064744192128</v>
+        <v>938.1442229836907</v>
       </c>
       <c r="C14" t="n">
-        <v>818.0713559289213</v>
+        <v>569.181706043279</v>
       </c>
       <c r="D14" t="n">
-        <v>459.8056573221708</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="E14" t="n">
-        <v>459.8056573221708</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="F14" t="n">
-        <v>48.81975253256328</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="G14" t="n">
-        <v>48.81975253256328</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H14" t="n">
-        <v>48.81975253256328</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I14" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J14" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K14" t="n">
-        <v>412.3079679977592</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L14" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M14" t="n">
         <v>1237.436361307048</v>
@@ -5296,34 +5296,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P14" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q14" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R14" t="n">
-        <v>2371.897027894855</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S14" t="n">
-        <v>2190.618379962291</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T14" t="n">
-        <v>1971.003775293977</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U14" t="n">
-        <v>1971.003775293977</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="V14" t="n">
-        <v>1639.940887950407</v>
+        <v>1821.21953588297</v>
       </c>
       <c r="W14" t="n">
-        <v>1287.172232680293</v>
+        <v>1468.450880612856</v>
       </c>
       <c r="X14" t="n">
-        <v>913.7064744192128</v>
+        <v>1324.744063047812</v>
       </c>
       <c r="Y14" t="n">
-        <v>913.7064744192128</v>
+        <v>1324.744063047812</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>929.9448703088874</v>
+        <v>882.175553373567</v>
       </c>
       <c r="C15" t="n">
-        <v>755.4918410277604</v>
+        <v>707.72252409244</v>
       </c>
       <c r="D15" t="n">
-        <v>606.5574313665091</v>
+        <v>558.7881144311888</v>
       </c>
       <c r="E15" t="n">
-        <v>447.3199763610536</v>
+        <v>399.5506594257333</v>
       </c>
       <c r="F15" t="n">
-        <v>300.7854183879386</v>
+        <v>253.0161014526182</v>
       </c>
       <c r="G15" t="n">
-        <v>162.7555308371003</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="H15" t="n">
         <v>114.9862139017798</v>
       </c>
       <c r="I15" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J15" t="n">
-        <v>81.9375139983886</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K15" t="n">
-        <v>318.2287647883257</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L15" t="n">
-        <v>697.355907913719</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M15" t="n">
-        <v>1191.758623309282</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N15" t="n">
-        <v>1714.953720827628</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O15" t="n">
-        <v>2127.159342346857</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P15" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q15" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R15" t="n">
-        <v>2383.337730684676</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S15" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T15" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U15" t="n">
-        <v>1795.401172494433</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V15" t="n">
-        <v>1560.24906426269</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W15" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X15" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y15" t="n">
-        <v>1098.160207328955</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>130.4284205002675</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="C16" t="n">
-        <v>130.4284205002675</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="D16" t="n">
-        <v>130.4284205002675</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="E16" t="n">
-        <v>130.4284205002675</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="F16" t="n">
-        <v>130.4284205002675</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G16" t="n">
-        <v>130.4284205002675</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H16" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I16" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J16" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K16" t="n">
-        <v>93.68771932371203</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L16" t="n">
         <v>206.6297039190408</v>
       </c>
       <c r="M16" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N16" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O16" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P16" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q16" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R16" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S16" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T16" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U16" t="n">
-        <v>640.6381696807582</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="V16" t="n">
-        <v>640.6381696807582</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="W16" t="n">
-        <v>351.2209996437976</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="X16" t="n">
-        <v>351.2209996437976</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.4284205002675</v>
+        <v>351.4590821581503</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>980.4169119745452</v>
+        <v>269.7874484552829</v>
       </c>
       <c r="C17" t="n">
-        <v>611.4543950341335</v>
+        <v>269.7874484552829</v>
       </c>
       <c r="D17" t="n">
-        <v>253.188696427383</v>
+        <v>269.7874484552829</v>
       </c>
       <c r="E17" t="n">
-        <v>253.188696427383</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="F17" t="n">
-        <v>253.188696427383</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="G17" t="n">
-        <v>253.188696427383</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H17" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I17" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J17" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K17" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L17" t="n">
-        <v>795.0052981540043</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M17" t="n">
         <v>1237.436361307048</v>
@@ -5539,28 +5539,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R17" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S17" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T17" t="n">
-        <v>2440.987626628164</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U17" t="n">
-        <v>2440.987626628164</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="V17" t="n">
-        <v>2109.924739284593</v>
+        <v>1386.161193962289</v>
       </c>
       <c r="W17" t="n">
-        <v>1757.156084014479</v>
+        <v>1033.392538692174</v>
       </c>
       <c r="X17" t="n">
-        <v>1757.156084014479</v>
+        <v>659.9267804310946</v>
       </c>
       <c r="Y17" t="n">
-        <v>1367.016752038667</v>
+        <v>269.7874484552829</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>882.175553373567</v>
+        <v>882.5823026510593</v>
       </c>
       <c r="C18" t="n">
-        <v>707.72252409244</v>
+        <v>708.1292733699323</v>
       </c>
       <c r="D18" t="n">
-        <v>558.7881144311888</v>
+        <v>559.1948637086811</v>
       </c>
       <c r="E18" t="n">
-        <v>399.5506594257333</v>
+        <v>399.9574087032256</v>
       </c>
       <c r="F18" t="n">
-        <v>253.0161014526182</v>
+        <v>253.4228507301105</v>
       </c>
       <c r="G18" t="n">
-        <v>114.9862139017798</v>
+        <v>115.3929631792721</v>
       </c>
       <c r="H18" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I18" t="n">
         <v>48.81975253256327</v>
@@ -5597,22 +5597,22 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K18" t="n">
-        <v>161.1406371339193</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L18" t="n">
-        <v>540.2677802593125</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M18" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N18" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O18" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q18" t="n">
         <v>2440.987626628164</v>
@@ -5621,25 +5621,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S18" t="n">
-        <v>2222.939999577549</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="T18" t="n">
-        <v>2023.578676424718</v>
+        <v>2183.976407531844</v>
       </c>
       <c r="U18" t="n">
-        <v>1955.392154324066</v>
+        <v>1955.798903601558</v>
       </c>
       <c r="V18" t="n">
-        <v>1720.240046092323</v>
+        <v>1720.646795369816</v>
       </c>
       <c r="W18" t="n">
-        <v>1466.002689364122</v>
+        <v>1466.409438641614</v>
       </c>
       <c r="X18" t="n">
-        <v>1258.151189158589</v>
+        <v>1258.557938436081</v>
       </c>
       <c r="Y18" t="n">
-        <v>1050.390890393635</v>
+        <v>1050.797639671127</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>412.9009368039367</v>
+        <v>242.9513235610716</v>
       </c>
       <c r="C19" t="n">
-        <v>412.9009368039367</v>
+        <v>242.9513235610716</v>
       </c>
       <c r="D19" t="n">
-        <v>412.9009368039367</v>
+        <v>92.8346841487359</v>
       </c>
       <c r="E19" t="n">
-        <v>412.9009368039367</v>
+        <v>92.8346841487359</v>
       </c>
       <c r="F19" t="n">
-        <v>266.0109893060263</v>
+        <v>92.8346841487359</v>
       </c>
       <c r="G19" t="n">
-        <v>96.91077412947243</v>
+        <v>92.8346841487359</v>
       </c>
       <c r="H19" t="n">
         <v>48.81975253256327</v>
@@ -5682,43 +5682,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M19" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N19" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O19" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S19" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="T19" t="n">
-        <v>412.9009368039367</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="U19" t="n">
-        <v>412.9009368039367</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="V19" t="n">
-        <v>412.9009368039367</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="W19" t="n">
-        <v>412.9009368039367</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="X19" t="n">
-        <v>412.9009368039367</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="Y19" t="n">
-        <v>412.9009368039367</v>
+        <v>424.5997883913113</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1040.089578155562</v>
+        <v>803.5705220712192</v>
       </c>
       <c r="C20" t="n">
-        <v>1040.089578155562</v>
+        <v>434.6080051308075</v>
       </c>
       <c r="D20" t="n">
-        <v>1040.089578155562</v>
+        <v>434.6080051308075</v>
       </c>
       <c r="E20" t="n">
-        <v>1040.089578155562</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F20" t="n">
-        <v>629.1036733659547</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G20" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H20" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I20" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J20" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K20" t="n">
         <v>412.3079679977591</v>
       </c>
       <c r="L20" t="n">
-        <v>795.0052981540047</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M20" t="n">
         <v>1237.436361307048</v>
@@ -5776,28 +5776,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R20" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S20" t="n">
-        <v>2190.61837996229</v>
+        <v>2264.141236724838</v>
       </c>
       <c r="T20" t="n">
-        <v>1971.003775293977</v>
+        <v>2264.141236724838</v>
       </c>
       <c r="U20" t="n">
-        <v>1717.224081305859</v>
+        <v>2264.141236724838</v>
       </c>
       <c r="V20" t="n">
-        <v>1430.228910131374</v>
+        <v>1933.078349381267</v>
       </c>
       <c r="W20" t="n">
-        <v>1430.228910131374</v>
+        <v>1580.309694111153</v>
       </c>
       <c r="X20" t="n">
-        <v>1430.228910131374</v>
+        <v>1580.309694111153</v>
       </c>
       <c r="Y20" t="n">
-        <v>1040.089578155562</v>
+        <v>1190.170362135341</v>
       </c>
     </row>
     <row r="21">
@@ -5810,19 +5810,19 @@
         <v>779.8344674874215</v>
       </c>
       <c r="C21" t="n">
-        <v>605.3814382062945</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D21" t="n">
-        <v>492.6216530619722</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E21" t="n">
-        <v>333.3841980565167</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F21" t="n">
-        <v>186.8496400834017</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G21" t="n">
-        <v>48.81975253256327</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H21" t="n">
         <v>48.81975253256327</v>
@@ -5831,25 +5831,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J21" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K21" t="n">
-        <v>161.1406371339193</v>
+        <v>318.2287647883253</v>
       </c>
       <c r="L21" t="n">
-        <v>540.2677802593125</v>
+        <v>697.3559079137186</v>
       </c>
       <c r="M21" t="n">
-        <v>1034.670495654875</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N21" t="n">
-        <v>1557.865593173221</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O21" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q21" t="n">
         <v>2440.987626628164</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>231.0001539525012</v>
+        <v>158.2164485980496</v>
       </c>
       <c r="C22" t="n">
-        <v>196.7328461149564</v>
+        <v>158.2164485980496</v>
       </c>
       <c r="D22" t="n">
-        <v>196.7328461149564</v>
+        <v>158.2164485980496</v>
       </c>
       <c r="E22" t="n">
-        <v>48.81975253256327</v>
+        <v>158.2164485980496</v>
       </c>
       <c r="F22" t="n">
-        <v>48.81975253256327</v>
+        <v>158.2164485980496</v>
       </c>
       <c r="G22" t="n">
         <v>48.81975253256327</v>
@@ -5919,43 +5919,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M22" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N22" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O22" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P22" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q22" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R22" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S22" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T22" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="U22" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="V22" t="n">
-        <v>640.6381696807582</v>
+        <v>158.2164485980496</v>
       </c>
       <c r="W22" t="n">
-        <v>640.6381696807582</v>
+        <v>158.2164485980496</v>
       </c>
       <c r="X22" t="n">
-        <v>412.6486187827409</v>
+        <v>158.2164485980496</v>
       </c>
       <c r="Y22" t="n">
-        <v>412.6486187827409</v>
+        <v>158.2164485980496</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1491.32352461901</v>
+        <v>859.7912685882286</v>
       </c>
       <c r="C23" t="n">
-        <v>1122.361007678598</v>
+        <v>490.8287516478169</v>
       </c>
       <c r="D23" t="n">
-        <v>764.0953090718475</v>
+        <v>490.8287516478169</v>
       </c>
       <c r="E23" t="n">
-        <v>378.3070564736033</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F23" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G23" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H23" t="n">
         <v>48.81975253256327</v>
@@ -5989,13 +5989,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J23" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K23" t="n">
         <v>412.307967997759</v>
       </c>
       <c r="L23" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540044</v>
       </c>
       <c r="M23" t="n">
         <v>1237.436361307048</v>
@@ -6013,28 +6013,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R23" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S23" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T23" t="n">
-        <v>2152.282423226541</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U23" t="n">
-        <v>2152.282423226541</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="V23" t="n">
-        <v>2152.282423226541</v>
+        <v>1636.530440628162</v>
       </c>
       <c r="W23" t="n">
-        <v>2152.282423226541</v>
+        <v>1636.530440628162</v>
       </c>
       <c r="X23" t="n">
-        <v>1778.816664965461</v>
+        <v>1636.530440628162</v>
       </c>
       <c r="Y23" t="n">
-        <v>1778.816664965461</v>
+        <v>1246.39110865235</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>930.0360717494659</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C24" t="n">
-        <v>755.5830424683389</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D24" t="n">
-        <v>606.6486328070877</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E24" t="n">
-        <v>447.4111778016322</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F24" t="n">
-        <v>300.8766198285172</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G24" t="n">
-        <v>162.8467322776788</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="H24" t="n">
-        <v>56.24718081742708</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I24" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J24" t="n">
-        <v>81.93751399838828</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K24" t="n">
-        <v>318.2287647883253</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L24" t="n">
-        <v>697.3559079137186</v>
+        <v>540.2677802593126</v>
       </c>
       <c r="M24" t="n">
-        <v>1191.758623309281</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N24" t="n">
-        <v>1714.953720827627</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O24" t="n">
-        <v>2127.159342346856</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P24" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q24" t="n">
         <v>2440.987626628164</v>
@@ -6110,10 +6110,10 @@
         <v>1306.011707534488</v>
       </c>
       <c r="X24" t="n">
-        <v>1306.011707534488</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y24" t="n">
-        <v>1098.251408769534</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="25">
@@ -6132,16 +6132,16 @@
         <v>490.5215302684222</v>
       </c>
       <c r="E25" t="n">
-        <v>490.5215302684222</v>
+        <v>342.6084366860291</v>
       </c>
       <c r="F25" t="n">
-        <v>490.5215302684222</v>
+        <v>195.7184891881188</v>
       </c>
       <c r="G25" t="n">
-        <v>346.8095662305</v>
+        <v>195.7184891881188</v>
       </c>
       <c r="H25" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I25" t="n">
         <v>48.81975253256327</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1147.558659869961</v>
+        <v>776.0479680797255</v>
       </c>
       <c r="C26" t="n">
-        <v>1147.558659869961</v>
+        <v>407.0854511393138</v>
       </c>
       <c r="D26" t="n">
-        <v>789.2929612632108</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E26" t="n">
-        <v>789.2929612632108</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F26" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G26" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H26" t="n">
         <v>48.81975253256327</v>
@@ -6226,19 +6226,19 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J26" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K26" t="n">
         <v>412.307967997759</v>
       </c>
       <c r="L26" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540044</v>
       </c>
       <c r="M26" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N26" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O26" t="n">
         <v>2037.925350935285</v>
@@ -6256,22 +6256,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T26" t="n">
-        <v>2221.37302195985</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U26" t="n">
-        <v>1967.593327971733</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V26" t="n">
-        <v>1967.593327971733</v>
+        <v>2279.021553650853</v>
       </c>
       <c r="W26" t="n">
-        <v>1614.824672701619</v>
+        <v>1926.252898380739</v>
       </c>
       <c r="X26" t="n">
-        <v>1241.358914440539</v>
+        <v>1552.787140119659</v>
       </c>
       <c r="Y26" t="n">
-        <v>1241.358914440539</v>
+        <v>1162.647808143847</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>784.5787559137638</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C27" t="n">
-        <v>610.1257266326368</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D27" t="n">
-        <v>461.1913169713854</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E27" t="n">
-        <v>301.9538619659299</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F27" t="n">
-        <v>155.4193039928149</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G27" t="n">
-        <v>155.4193039928149</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="H27" t="n">
         <v>48.81975253256327</v>
@@ -6305,52 +6305,52 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J27" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K27" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L27" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M27" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N27" t="n">
-        <v>1746.002248079783</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O27" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q27" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R27" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S27" t="n">
-        <v>2285.334183947379</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T27" t="n">
-        <v>2085.972860794548</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U27" t="n">
-        <v>1857.795356864263</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V27" t="n">
-        <v>1622.64324863252</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W27" t="n">
-        <v>1368.405891904318</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X27" t="n">
-        <v>1160.554391698786</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y27" t="n">
-        <v>952.7940929338317</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="28">
@@ -6414,16 +6414,16 @@
         <v>640.638169680758</v>
       </c>
       <c r="T28" t="n">
-        <v>640.638169680758</v>
+        <v>627.4160100921315</v>
       </c>
       <c r="U28" t="n">
-        <v>351.4590821581503</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="V28" t="n">
-        <v>96.77459395226342</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W28" t="n">
-        <v>96.77459395226342</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X28" t="n">
         <v>48.81975253256327</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1632.744092790253</v>
+        <v>1203.859608527166</v>
       </c>
       <c r="C29" t="n">
-        <v>1263.781575849841</v>
+        <v>1203.859608527166</v>
       </c>
       <c r="D29" t="n">
-        <v>1263.781575849841</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="E29" t="n">
-        <v>877.9933232515971</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F29" t="n">
-        <v>467.0074184619895</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G29" t="n">
         <v>48.81975253256327</v>
@@ -6475,7 +6475,7 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N29" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O29" t="n">
         <v>2037.925350935285</v>
@@ -6490,25 +6490,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S29" t="n">
-        <v>2440.987626628164</v>
+        <v>2361.085449797281</v>
       </c>
       <c r="T29" t="n">
-        <v>2440.987626628164</v>
+        <v>2141.470845128968</v>
       </c>
       <c r="U29" t="n">
-        <v>2392.809691115455</v>
+        <v>1887.69115114085</v>
       </c>
       <c r="V29" t="n">
-        <v>2392.809691115455</v>
+        <v>1556.62826379728</v>
       </c>
       <c r="W29" t="n">
-        <v>2392.809691115455</v>
+        <v>1203.859608527166</v>
       </c>
       <c r="X29" t="n">
-        <v>2019.343932854375</v>
+        <v>1203.859608527166</v>
       </c>
       <c r="Y29" t="n">
-        <v>2019.343932854375</v>
+        <v>1203.859608527166</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>922.6086434646021</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C30" t="n">
-        <v>748.1556141834751</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D30" t="n">
-        <v>599.2212045222238</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E30" t="n">
-        <v>439.9837495167684</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F30" t="n">
-        <v>293.4491915436533</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G30" t="n">
-        <v>155.4193039928149</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="H30" t="n">
         <v>48.81975253256327</v>
@@ -6542,52 +6542,52 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J30" t="n">
-        <v>81.93751399838828</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K30" t="n">
-        <v>318.2287647883253</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L30" t="n">
-        <v>697.3559079137186</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M30" t="n">
-        <v>1191.758623309281</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N30" t="n">
-        <v>1714.953720827627</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O30" t="n">
-        <v>2127.159342346856</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P30" t="n">
-        <v>2440.987626628164</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q30" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R30" t="n">
-        <v>2423.364071498218</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S30" t="n">
-        <v>2423.364071498218</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T30" t="n">
-        <v>2224.002748345386</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U30" t="n">
-        <v>1995.825244415101</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V30" t="n">
-        <v>1760.673136183358</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W30" t="n">
-        <v>1506.435779455157</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X30" t="n">
-        <v>1298.584279249624</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y30" t="n">
-        <v>1090.82398048467</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>335.058361281315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C31" t="n">
-        <v>335.058361281315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D31" t="n">
-        <v>335.058361281315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E31" t="n">
-        <v>335.058361281315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F31" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G31" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H31" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I31" t="n">
         <v>48.81975253256327</v>
@@ -6642,31 +6642,31 @@
         <v>640.638169680758</v>
       </c>
       <c r="Q31" t="n">
-        <v>602.8128707069466</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R31" t="n">
-        <v>450.1511924226977</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S31" t="n">
-        <v>450.1511924226977</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T31" t="n">
-        <v>450.1511924226977</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="U31" t="n">
-        <v>450.1511924226977</v>
+        <v>123.7218492813288</v>
       </c>
       <c r="V31" t="n">
-        <v>450.1511924226977</v>
+        <v>123.7218492813288</v>
       </c>
       <c r="W31" t="n">
-        <v>335.058361281315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X31" t="n">
-        <v>335.058361281315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y31" t="n">
-        <v>335.058361281315</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1263.781575849841</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="C32" t="n">
-        <v>1263.781575849841</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="D32" t="n">
-        <v>1263.781575849841</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="E32" t="n">
-        <v>877.9933232515971</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="F32" t="n">
-        <v>467.0074184619895</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="G32" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H32" t="n">
         <v>48.81975253256327</v>
@@ -6700,10 +6700,10 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J32" t="n">
-        <v>145.9660485697319</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K32" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L32" t="n">
         <v>795.0052981540045</v>
@@ -6718,7 +6718,7 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P32" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q32" t="n">
         <v>2440.987626628164</v>
@@ -6727,25 +6727,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S32" t="n">
-        <v>2440.987626628164</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T32" t="n">
-        <v>2440.987626628164</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="U32" t="n">
-        <v>2358.449553430304</v>
+        <v>1786.314680039169</v>
       </c>
       <c r="V32" t="n">
-        <v>2027.386666086733</v>
+        <v>1455.251792695598</v>
       </c>
       <c r="W32" t="n">
-        <v>2027.386666086733</v>
+        <v>1155.046228513537</v>
       </c>
       <c r="X32" t="n">
-        <v>1653.920907825653</v>
+        <v>1155.046228513537</v>
       </c>
       <c r="Y32" t="n">
-        <v>1263.781575849841</v>
+        <v>764.9068965377251</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>722.1845715439331</v>
+        <v>882.175553373567</v>
       </c>
       <c r="C33" t="n">
-        <v>547.7315422628061</v>
+        <v>707.72252409244</v>
       </c>
       <c r="D33" t="n">
-        <v>398.7971326015548</v>
+        <v>558.7881144311888</v>
       </c>
       <c r="E33" t="n">
-        <v>239.5596775960993</v>
+        <v>399.5506594257333</v>
       </c>
       <c r="F33" t="n">
-        <v>93.02511962298431</v>
+        <v>253.0161014526182</v>
       </c>
       <c r="G33" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="H33" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I33" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J33" t="n">
-        <v>81.93751399838828</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K33" t="n">
-        <v>318.2287647883253</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L33" t="n">
-        <v>697.3559079137186</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M33" t="n">
-        <v>1191.758623309281</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N33" t="n">
-        <v>1714.953720827627</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O33" t="n">
-        <v>2127.159342346856</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P33" t="n">
-        <v>2440.987626628164</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q33" t="n">
         <v>2440.987626628164</v>
@@ -6806,25 +6806,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S33" t="n">
-        <v>2222.939999577549</v>
+        <v>2382.930981407183</v>
       </c>
       <c r="T33" t="n">
-        <v>2023.578676424718</v>
+        <v>2183.569658254351</v>
       </c>
       <c r="U33" t="n">
-        <v>1795.401172494432</v>
+        <v>1955.392154324066</v>
       </c>
       <c r="V33" t="n">
-        <v>1560.249064262689</v>
+        <v>1720.240046092323</v>
       </c>
       <c r="W33" t="n">
-        <v>1306.011707534488</v>
+        <v>1466.002689364122</v>
       </c>
       <c r="X33" t="n">
-        <v>1098.160207328955</v>
+        <v>1258.151189158589</v>
       </c>
       <c r="Y33" t="n">
-        <v>890.3999085640012</v>
+        <v>1050.390890393635</v>
       </c>
     </row>
     <row r="34">
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>96.77459395226342</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C34" t="n">
         <v>48.81975253256327</v>
@@ -6894,16 +6894,16 @@
         <v>351.4590821581503</v>
       </c>
       <c r="V34" t="n">
-        <v>96.77459395226342</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W34" t="n">
-        <v>96.77459395226342</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X34" t="n">
-        <v>96.77459395226342</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y34" t="n">
-        <v>96.77459395226342</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1263.355201987353</v>
+        <v>434.6080051308075</v>
       </c>
       <c r="C35" t="n">
-        <v>894.3926850469411</v>
+        <v>434.6080051308075</v>
       </c>
       <c r="D35" t="n">
-        <v>629.1036733659547</v>
+        <v>434.6080051308075</v>
       </c>
       <c r="E35" t="n">
-        <v>629.1036733659547</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F35" t="n">
-        <v>629.1036733659547</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G35" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H35" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I35" t="n">
         <v>48.81975253256327</v>
@@ -6943,7 +6943,7 @@
         <v>412.307967997759</v>
       </c>
       <c r="L35" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540044</v>
       </c>
       <c r="M35" t="n">
         <v>1237.436361307048</v>
@@ -6964,25 +6964,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S35" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T35" t="n">
-        <v>2040.094374027286</v>
+        <v>2268.644478045505</v>
       </c>
       <c r="U35" t="n">
-        <v>2040.094374027286</v>
+        <v>2268.644478045505</v>
       </c>
       <c r="V35" t="n">
-        <v>2040.094374027286</v>
+        <v>1937.581590701935</v>
       </c>
       <c r="W35" t="n">
-        <v>2040.094374027286</v>
+        <v>1584.812935431821</v>
       </c>
       <c r="X35" t="n">
-        <v>2040.094374027286</v>
+        <v>1211.347177170741</v>
       </c>
       <c r="Y35" t="n">
-        <v>1649.955042051474</v>
+        <v>821.2078451949293</v>
       </c>
     </row>
     <row r="36">
@@ -6992,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>922.6086434646021</v>
+        <v>882.5823026510593</v>
       </c>
       <c r="C36" t="n">
-        <v>748.1556141834751</v>
+        <v>708.1292733699323</v>
       </c>
       <c r="D36" t="n">
         <v>599.2212045222238</v>
@@ -7040,28 +7040,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R36" t="n">
-        <v>2423.364071498218</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S36" t="n">
-        <v>2423.364071498218</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="T36" t="n">
-        <v>2224.002748345386</v>
+        <v>2183.976407531844</v>
       </c>
       <c r="U36" t="n">
-        <v>1995.825244415101</v>
+        <v>1955.798903601558</v>
       </c>
       <c r="V36" t="n">
-        <v>1760.673136183358</v>
+        <v>1720.646795369816</v>
       </c>
       <c r="W36" t="n">
-        <v>1506.435779455157</v>
+        <v>1466.409438641614</v>
       </c>
       <c r="X36" t="n">
-        <v>1298.584279249624</v>
+        <v>1258.557938436081</v>
       </c>
       <c r="Y36" t="n">
-        <v>1090.82398048467</v>
+        <v>1050.797639671127</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>368.0366071214529</v>
+        <v>355.3739985620517</v>
       </c>
       <c r="C37" t="n">
-        <v>368.0366071214529</v>
+        <v>355.3739985620517</v>
       </c>
       <c r="D37" t="n">
-        <v>217.9199677091171</v>
+        <v>355.3739985620517</v>
       </c>
       <c r="E37" t="n">
-        <v>217.9199677091171</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="F37" t="n">
-        <v>217.9199677091171</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="G37" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H37" t="n">
         <v>48.81975253256327</v>
@@ -7125,22 +7125,22 @@
         <v>640.638169680758</v>
       </c>
       <c r="T37" t="n">
-        <v>640.638169680758</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="U37" t="n">
-        <v>368.0366071214529</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="V37" t="n">
-        <v>368.0366071214529</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="W37" t="n">
-        <v>368.0366071214529</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="X37" t="n">
-        <v>368.0366071214529</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="Y37" t="n">
-        <v>368.0366071214529</v>
+        <v>355.3739985620517</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1632.744092790253</v>
+        <v>1469.545205232354</v>
       </c>
       <c r="C38" t="n">
-        <v>1263.781575849841</v>
+        <v>1469.545205232354</v>
       </c>
       <c r="D38" t="n">
-        <v>1263.781575849841</v>
+        <v>1111.279506625603</v>
       </c>
       <c r="E38" t="n">
         <v>877.9933232515971</v>
@@ -7174,16 +7174,16 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J38" t="n">
-        <v>145.9660485697318</v>
+        <v>145.9660485697323</v>
       </c>
       <c r="K38" t="n">
-        <v>412.3079679977591</v>
+        <v>412.3079679977595</v>
       </c>
       <c r="L38" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540051</v>
       </c>
       <c r="M38" t="n">
-        <v>1237.436361307048</v>
+        <v>1237.436361307049</v>
       </c>
       <c r="N38" t="n">
         <v>1672.394424063531</v>
@@ -7198,28 +7198,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R38" t="n">
-        <v>2372.112588124489</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S38" t="n">
-        <v>2372.112588124489</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T38" t="n">
-        <v>2372.112588124489</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U38" t="n">
-        <v>2372.112588124489</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="V38" t="n">
-        <v>2372.112588124489</v>
+        <v>1856.145045296475</v>
       </c>
       <c r="W38" t="n">
-        <v>2019.343932854375</v>
+        <v>1856.145045296475</v>
       </c>
       <c r="X38" t="n">
-        <v>2019.343932854375</v>
+        <v>1856.145045296475</v>
       </c>
       <c r="Y38" t="n">
-        <v>2019.343932854375</v>
+        <v>1856.145045296475</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>816.0090920043505</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C39" t="n">
-        <v>641.5560627232235</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D39" t="n">
-        <v>492.6216530619722</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E39" t="n">
-        <v>333.3841980565167</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F39" t="n">
-        <v>186.8496400834017</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="G39" t="n">
-        <v>48.81975253256327</v>
+        <v>101.5297900452609</v>
       </c>
       <c r="H39" t="n">
         <v>48.81975253256327</v>
@@ -7256,49 +7256,49 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K39" t="n">
-        <v>161.1406371339194</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L39" t="n">
-        <v>540.2677802593126</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M39" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N39" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O39" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q39" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R39" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S39" t="n">
-        <v>2316.764520037966</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T39" t="n">
-        <v>2117.403196885135</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U39" t="n">
-        <v>1889.225692954849</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V39" t="n">
-        <v>1654.073584723107</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W39" t="n">
-        <v>1399.836227994905</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X39" t="n">
-        <v>1191.984727789372</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y39" t="n">
-        <v>984.2244290244184</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="C40" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="D40" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="E40" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F40" t="n">
         <v>48.81975253256327</v>
@@ -7365,19 +7365,19 @@
         <v>640.638169680758</v>
       </c>
       <c r="U40" t="n">
-        <v>640.638169680758</v>
+        <v>450.3941882363605</v>
       </c>
       <c r="V40" t="n">
-        <v>385.9536814748711</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="W40" t="n">
-        <v>385.9536814748711</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="X40" t="n">
-        <v>385.9536814748711</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="Y40" t="n">
-        <v>165.161102331341</v>
+        <v>195.7097000304736</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1158.255478203622</v>
+        <v>1074.373679044731</v>
       </c>
       <c r="C41" t="n">
-        <v>789.2929612632108</v>
+        <v>705.4111621043189</v>
       </c>
       <c r="D41" t="n">
-        <v>789.2929612632108</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="E41" t="n">
-        <v>789.2929612632108</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="F41" t="n">
         <v>378.3070564736033</v>
@@ -7444,19 +7444,19 @@
         <v>2440.987626628164</v>
       </c>
       <c r="U41" t="n">
-        <v>2440.987626628164</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="V41" t="n">
-        <v>2109.924739284593</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="W41" t="n">
-        <v>1757.156084014479</v>
+        <v>1834.439277369932</v>
       </c>
       <c r="X41" t="n">
-        <v>1757.156084014479</v>
+        <v>1460.973519108852</v>
       </c>
       <c r="Y41" t="n">
-        <v>1367.016752038667</v>
+        <v>1460.973519108852</v>
       </c>
     </row>
     <row r="42">
@@ -7499,7 +7499,7 @@
         <v>728.4044351658748</v>
       </c>
       <c r="M42" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N42" t="n">
         <v>1557.865593173221</v>
@@ -7514,28 +7514,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R42" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S42" t="n">
-        <v>2280.589895521037</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T42" t="n">
-        <v>2081.228572368206</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U42" t="n">
-        <v>1853.051068437921</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V42" t="n">
-        <v>1617.898960206178</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.602240824373</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.750740618841</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.990441853887</v>
+        <v>988.7751048338188</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>351.2209996437976</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C43" t="n">
-        <v>351.2209996437976</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D43" t="n">
-        <v>351.2209996437976</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E43" t="n">
-        <v>351.2209996437976</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F43" t="n">
-        <v>204.3310521458872</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G43" t="n">
-        <v>204.3310521458872</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H43" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I43" t="n">
         <v>48.81975253256327</v>
@@ -7602,19 +7602,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U43" t="n">
-        <v>640.6381696807582</v>
+        <v>592.9214107754108</v>
       </c>
       <c r="V43" t="n">
-        <v>640.6381696807582</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W43" t="n">
-        <v>351.2209996437976</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X43" t="n">
-        <v>351.2209996437976</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y43" t="n">
-        <v>351.2209996437976</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1290.78269632715</v>
+        <v>1572.822125467577</v>
       </c>
       <c r="C44" t="n">
-        <v>1290.78269632715</v>
+        <v>1203.859608527166</v>
       </c>
       <c r="D44" t="n">
-        <v>1290.78269632715</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="E44" t="n">
-        <v>904.9944437289059</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F44" t="n">
-        <v>494.0085389392984</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G44" t="n">
-        <v>75.82087300987212</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H44" t="n">
-        <v>75.82087300987212</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I44" t="n">
         <v>48.81975253256327</v>
@@ -7660,13 +7660,13 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N44" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O44" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P44" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q44" t="n">
         <v>2440.987626628164</v>
@@ -7690,10 +7690,10 @@
         <v>2440.987626628164</v>
       </c>
       <c r="X44" t="n">
-        <v>2067.521868367084</v>
+        <v>2349.561297507511</v>
       </c>
       <c r="Y44" t="n">
-        <v>1677.382536391272</v>
+        <v>1959.421965531699</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>722.1845715439331</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C45" t="n">
-        <v>547.7315422628061</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D45" t="n">
-        <v>398.7971326015548</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E45" t="n">
-        <v>239.5596775960993</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F45" t="n">
-        <v>93.02511962298431</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G45" t="n">
-        <v>93.02511962298431</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H45" t="n">
-        <v>93.02511962298431</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I45" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J45" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K45" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L45" t="n">
-        <v>728.4044351658748</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M45" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N45" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O45" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q45" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R45" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S45" t="n">
-        <v>2222.939999577549</v>
+        <v>2316.764520037966</v>
       </c>
       <c r="T45" t="n">
-        <v>2023.578676424718</v>
+        <v>2117.403196885135</v>
       </c>
       <c r="U45" t="n">
-        <v>1795.401172494432</v>
+        <v>1889.225692954849</v>
       </c>
       <c r="V45" t="n">
-        <v>1560.249064262689</v>
+        <v>1654.073584723107</v>
       </c>
       <c r="W45" t="n">
-        <v>1306.011707534488</v>
+        <v>1399.836227994905</v>
       </c>
       <c r="X45" t="n">
-        <v>1098.160207328955</v>
+        <v>1191.984727789372</v>
       </c>
       <c r="Y45" t="n">
-        <v>890.3999085640012</v>
+        <v>984.2244290244184</v>
       </c>
     </row>
     <row r="46">
@@ -7791,16 +7791,16 @@
         <v>424.5997883913116</v>
       </c>
       <c r="E46" t="n">
-        <v>424.5997883913116</v>
+        <v>276.6866948089184</v>
       </c>
       <c r="F46" t="n">
-        <v>424.5997883913116</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G46" t="n">
-        <v>255.4995732147577</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H46" t="n">
-        <v>96.85842076766241</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I46" t="n">
         <v>48.81975253256327</v>
@@ -8063,16 +8063,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8297,19 +8297,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>255.5148970497678</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>94.72888660085701</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>51.40241131725693</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>94.72888660085746</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>289.30534918541</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>51.40241131725693</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>61.27660229194302</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K18" t="n">
-        <v>139.2426449029007</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>139.2426449029007</v>
+        <v>233.1030882730269</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725696</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>94.72888660085718</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>180.8033201453156</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>51.40241131725696</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9968,13 +9968,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>203.8252941185861</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>94.72888660085718</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>51.40241131725696</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>94.72888660085718</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>51.40241131725696</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10904,7 +10904,7 @@
         <v>61.27660229194304</v>
       </c>
       <c r="K39" t="n">
-        <v>139.2426449029008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11147,10 +11147,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>275.6680385918563</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928321</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599044</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>289.3053491854098</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>119.6336813319299</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>297.0850969399118</v>
       </c>
       <c r="G11" t="n">
         <v>414.005789270132</v>
@@ -23314,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23339,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>92.88627525581323</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23390,7 +23390,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>92.88627525581298</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>36.92181937613115</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.4092130247883</v>
@@ -23439,7 +23439,7 @@
         <v>137.955174638333</v>
       </c>
       <c r="J13" t="n">
-        <v>52.22830032617342</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,22 +23460,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.44704598407324</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S13" t="n">
         <v>213.8779974765521</v>
       </c>
       <c r="T13" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>177.9845675425502</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>270.594124465619</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>414.005789270132</v>
@@ -23515,7 +23515,7 @@
         <v>326.1924309016296</v>
       </c>
       <c r="I14" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>227.4613512890761</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>101.317675027284</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23591,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>58.24193217968197</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23661,22 +23661,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>14.23023934202635</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>76.26215963459713</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I16" t="n">
         <v>137.955174638333</v>
       </c>
       <c r="J16" t="n">
-        <v>52.22830032617342</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.44704598407324</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R16" t="n">
         <v>151.1350615014064</v>
@@ -23709,19 +23709,19 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>323.6476434636949</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23749,10 +23749,10 @@
         <v>414.005789270132</v>
       </c>
       <c r="H17" t="n">
-        <v>123.867176445758</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I17" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23828,10 +23828,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>105.5335559456492</v>
+        <v>39.6260774054074</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,13 +23861,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>158.3910720113375</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H19" t="n">
-        <v>109.4446295416842</v>
+        <v>113.4799586226134</v>
       </c>
       <c r="I19" t="n">
         <v>137.955174638333</v>
@@ -23934,16 +23934,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R19" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S19" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U19" t="n">
         <v>286.2872966473816</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H20" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>4.387935448945541</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V20" t="n">
-        <v>43.62703900739456</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24050,10 +24050,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>141.3464342174088</v>
       </c>
       <c r="D21" t="n">
-        <v>35.81287827175959</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24065,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>65.50479675552441</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>133.3221863394585</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4092130247883</v>
+        <v>59.10648391995687</v>
       </c>
       <c r="H22" t="n">
         <v>157.0547409226243</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R22" t="n">
         <v>151.1350615014064</v>
@@ -24180,19 +24180,19 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T22" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>98.11563272049398</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>351.2175066898722</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I23" t="n">
         <v>160.4752923549255</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S23" t="n">
         <v>179.4658614532381</v>
@@ -24262,19 +24262,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24299,13 +24299,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>61.77024252613235</v>
       </c>
       <c r="I24" t="n">
-        <v>58.15164275350924</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24350,7 +24350,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>25.13436862724529</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>11.62499163362438</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J25" t="n">
         <v>52.22830032617343</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>289.871589638609</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,13 +24454,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I26" t="n">
         <v>160.4752923549255</v>
@@ -24496,13 +24496,13 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>167.4058462225976</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24539,7 +24539,7 @@
         <v>136.64958867533</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>61.77024252613235</v>
       </c>
       <c r="I27" t="n">
         <v>65.50479675552441</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>4.696845542078279</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24654,19 +24654,19 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T28" t="n">
-        <v>225.4598605480533</v>
+        <v>212.3699225553131</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>178.234362383534</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H29" t="n">
         <v>326.1924309016296</v>
@@ -24730,22 +24730,22 @@
         <v>68.39969274597631</v>
       </c>
       <c r="S29" t="n">
-        <v>179.4658614532381</v>
+        <v>100.3627063906644</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>203.5457408906546</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24773,10 +24773,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>61.77024252613235</v>
       </c>
       <c r="I30" t="n">
         <v>65.50479675552441</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>39.626077405407</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.4092130247883</v>
@@ -24858,7 +24858,7 @@
         <v>157.0547409226243</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J31" t="n">
         <v>52.22830032617343</v>
@@ -24882,25 +24882,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S31" t="n">
         <v>213.8779974765521</v>
       </c>
       <c r="T31" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>172.5810955066221</v>
+        <v>212.3699225553132</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24925,16 +24925,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H32" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>160.4752923549255</v>
@@ -24967,22 +24967,22 @@
         <v>68.39969274597631</v>
       </c>
       <c r="S32" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>169.5292045823546</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>52.03746017717248</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25010,13 +25010,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I33" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>158.3910720113372</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>119.7715280931247</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>239.0477053310879</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>92.04692005650645</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H35" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>68.39969274597631</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>46.79874152479888</v>
       </c>
       <c r="U35" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25238,7 +25238,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>39.62607740540737</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>39.626077405407</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>158.7937537960548</v>
@@ -25317,19 +25317,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H37" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>137.955174638333</v>
@@ -25365,10 +25365,10 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T37" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.41174971366956</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>161.6329844926289</v>
       </c>
     </row>
     <row r="38">
@@ -25393,13 +25393,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>150.9770485319956</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0.2134046273384058</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S38" t="n">
         <v>179.4658614532381</v>
@@ -25447,13 +25447,13 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25481,13 +25481,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>105.5335559456492</v>
+        <v>53.35061880807848</v>
       </c>
       <c r="I39" t="n">
         <v>65.50479675552441</v>
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>35.81287827175935</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>64.65404388114733</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.4092130247883</v>
@@ -25605,7 +25605,7 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2872966473816</v>
+        <v>97.9457550174281</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>176.0601805667866</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>30.84997704627449</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>414.005789270132</v>
@@ -25684,19 +25684,19 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25769,13 +25769,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>206.8512309729332</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>97.39144430711946</v>
       </c>
     </row>
     <row r="43">
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H43" t="n">
-        <v>141.0537289437665</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J43" t="n">
         <v>52.22830032617343</v>
@@ -25842,10 +25842,10 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2872966473816</v>
+        <v>239.0477053310876</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H44" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I44" t="n">
-        <v>133.7441830823898</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>279.219034849023</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25958,13 +25958,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I45" t="n">
-        <v>21.74148333600759</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>35.81287827175935</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>87.24198819412797</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I46" t="n">
-        <v>90.39689308558486</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J46" t="n">
         <v>52.22830032617343</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>599757.26787756</v>
+        <v>599757.2678775601</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>599757.26787756</v>
+        <v>599757.2678775601</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>599757.2678775602</v>
+        <v>599757.2678775601</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>599757.2678775602</v>
+        <v>599757.2678775601</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>599757.2678775599</v>
+        <v>599757.2678775601</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>599757.26787756</v>
+        <v>599757.2678775599</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>599757.2678775601</v>
+        <v>599757.2678775602</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>599757.2678775599</v>
+        <v>599757.26787756</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>599757.2678775601</v>
+        <v>599757.26787756</v>
       </c>
     </row>
   </sheetData>
@@ -26316,19 +26316,19 @@
         <v>595255.2831516053</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="E2" t="n">
-        <v>393156.4705133701</v>
+        <v>393156.4705133699</v>
       </c>
       <c r="F2" t="n">
-        <v>393156.4705133701</v>
+        <v>393156.4705133698</v>
       </c>
       <c r="G2" t="n">
-        <v>393156.4705133701</v>
+        <v>393156.4705133699</v>
       </c>
       <c r="H2" t="n">
         <v>393156.47051337</v>
@@ -26340,7 +26340,7 @@
         <v>393156.4705133699</v>
       </c>
       <c r="K2" t="n">
-        <v>393156.4705133698</v>
+        <v>393156.47051337</v>
       </c>
       <c r="L2" t="n">
         <v>393156.4705133699</v>
@@ -26349,13 +26349,13 @@
         <v>393156.4705133699</v>
       </c>
       <c r="N2" t="n">
-        <v>393156.4705133698</v>
+        <v>393156.4705133699</v>
       </c>
       <c r="O2" t="n">
         <v>393156.4705133699</v>
       </c>
       <c r="P2" t="n">
-        <v>393156.4705133699</v>
+        <v>393156.4705133701</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>369435.2991327802</v>
+        <v>369435.2991327801</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>92014.24528109307</v>
+        <v>92014.24528109306</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>44379.07056643641</v>
       </c>
       <c r="F4" t="n">
-        <v>44379.07056643641</v>
+        <v>44379.07056643642</v>
       </c>
       <c r="G4" t="n">
         <v>44379.07056643641</v>
@@ -26438,10 +26438,10 @@
         <v>44379.07056643641</v>
       </c>
       <c r="I4" t="n">
+        <v>44379.07056643642</v>
+      </c>
+      <c r="J4" t="n">
         <v>44379.07056643641</v>
-      </c>
-      <c r="J4" t="n">
-        <v>44379.07056643642</v>
       </c>
       <c r="K4" t="n">
         <v>44379.07056643641</v>
@@ -26481,7 +26481,7 @@
         <v>44136.03802033842</v>
       </c>
       <c r="F5" t="n">
-        <v>44136.03802033843</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="G5" t="n">
         <v>44136.03802033842</v>
@@ -26524,46 +26524,46 @@
         <v>145241.6298659403</v>
       </c>
       <c r="C6" t="n">
-        <v>226011.0613974879</v>
+        <v>226011.0613974882</v>
       </c>
       <c r="D6" t="n">
-        <v>226011.0613974882</v>
+        <v>226011.0613974878</v>
       </c>
       <c r="E6" t="n">
-        <v>-71762.86177991719</v>
+        <v>-65490.82966355822</v>
       </c>
       <c r="F6" t="n">
-        <v>297672.4373528631</v>
+        <v>303944.4694692218</v>
       </c>
       <c r="G6" t="n">
-        <v>297672.4373528631</v>
+        <v>303944.4694692219</v>
       </c>
       <c r="H6" t="n">
-        <v>297672.437352863</v>
+        <v>303944.469469222</v>
       </c>
       <c r="I6" t="n">
-        <v>297672.4373528629</v>
+        <v>303944.4694692219</v>
       </c>
       <c r="J6" t="n">
-        <v>234612.4947537566</v>
+        <v>240884.5268701156</v>
       </c>
       <c r="K6" t="n">
-        <v>297672.4373528628</v>
+        <v>303944.469469222</v>
       </c>
       <c r="L6" t="n">
-        <v>297672.4373528628</v>
+        <v>303944.4694692219</v>
       </c>
       <c r="M6" t="n">
-        <v>205658.1920717698</v>
+        <v>211930.2241881288</v>
       </c>
       <c r="N6" t="n">
-        <v>297672.4373528628</v>
+        <v>303944.4694692219</v>
       </c>
       <c r="O6" t="n">
-        <v>297672.4373528629</v>
+        <v>303944.4694692219</v>
       </c>
       <c r="P6" t="n">
-        <v>297672.4373528628</v>
+        <v>303944.4694692221</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>322.6158759445109</v>
+        <v>322.6158759445108</v>
       </c>
       <c r="F3" t="n">
-        <v>322.6158759445109</v>
+        <v>322.6158759445108</v>
       </c>
       <c r="G3" t="n">
         <v>322.6158759445108</v>
@@ -26801,7 +26801,7 @@
         <v>610.2469066570409</v>
       </c>
       <c r="F4" t="n">
-        <v>610.246906657041</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="G4" t="n">
         <v>610.2469066570409</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>322.6158759445109</v>
+        <v>322.6158759445108</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>369.2326177793819</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793819</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>331.6386549045595</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>86.73796959247585</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>288.9009862035136</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,19 +27457,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56.45145718935679</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27514,16 +27514,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>208.2626811911662</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27560,7 +27560,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>185.8818679203419</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>364.436345787192</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>366.3997666085763</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27675,10 +27675,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>128.71681180081</v>
@@ -27745,16 +27745,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>170.6802279473319</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>26.11494821561502</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27763,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27827,13 +27827,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>97.48006257801995</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>230.1036515511437</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27897,13 +27897,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>268.4108542424576</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>177.5422263168175</v>
       </c>
     </row>
     <row r="9">
@@ -27937,7 +27937,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27949,13 +27949,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>99.07228432480336</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27994,13 +27994,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>120.6799288917399</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>145.9569875857745</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28034,7 +28034,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H11" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I11" t="n">
-        <v>50.00059721548044</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J11" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K11" t="n">
         <v>164.9766803203078</v>
@@ -31770,10 +31770,10 @@
         <v>204.6681601733202</v>
       </c>
       <c r="M11" t="n">
-        <v>227.7327635253934</v>
+        <v>227.7327635253933</v>
       </c>
       <c r="N11" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O11" t="n">
         <v>218.5211886152591</v>
@@ -31782,16 +31782,16 @@
         <v>186.5027788167461</v>
       </c>
       <c r="Q11" t="n">
-        <v>140.0558197925741</v>
+        <v>140.055819792574</v>
       </c>
       <c r="R11" t="n">
-        <v>81.4694251951734</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S11" t="n">
-        <v>29.55420813300721</v>
+        <v>29.5542081330072</v>
       </c>
       <c r="T11" t="n">
-        <v>5.677390942500889</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U11" t="n">
         <v>0.1037558596002446</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6939284878806461</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H12" t="n">
-        <v>6.701888290847293</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I12" t="n">
-        <v>23.89183609589067</v>
+        <v>23.89183609589066</v>
       </c>
       <c r="J12" t="n">
-        <v>65.56102437472369</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K12" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L12" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M12" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N12" t="n">
         <v>180.479234222958</v>
       </c>
       <c r="O12" t="n">
-        <v>165.1032398336027</v>
+        <v>165.1032398336026</v>
       </c>
       <c r="P12" t="n">
-        <v>132.5099057252087</v>
+        <v>132.5099057252086</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.57936276876458</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R12" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S12" t="n">
-        <v>12.88941730778305</v>
+        <v>12.88941730778304</v>
       </c>
       <c r="T12" t="n">
-        <v>2.797018773518919</v>
+        <v>2.797018773518918</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5817663336704294</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H13" t="n">
-        <v>5.172431584815276</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I13" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J13" t="n">
-        <v>41.13087979049936</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K13" t="n">
-        <v>67.59067040280078</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L13" t="n">
-        <v>86.49278746223823</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M13" t="n">
-        <v>91.19451719526558</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N13" t="n">
-        <v>89.02611540613042</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O13" t="n">
-        <v>82.23002687188945</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P13" t="n">
-        <v>70.36199366501263</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R13" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S13" t="n">
-        <v>10.13860056042012</v>
+        <v>10.13860056042011</v>
       </c>
       <c r="T13" t="n">
-        <v>2.485728880228198</v>
+        <v>2.485728880228197</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03173270910929619</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H14" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I14" t="n">
-        <v>50.00059721548044</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J14" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K14" t="n">
         <v>164.9766803203078</v>
@@ -32007,10 +32007,10 @@
         <v>204.6681601733202</v>
       </c>
       <c r="M14" t="n">
-        <v>227.7327635253934</v>
+        <v>227.7327635253933</v>
       </c>
       <c r="N14" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O14" t="n">
         <v>218.5211886152591</v>
@@ -32019,16 +32019,16 @@
         <v>186.5027788167461</v>
       </c>
       <c r="Q14" t="n">
-        <v>140.0558197925741</v>
+        <v>140.055819792574</v>
       </c>
       <c r="R14" t="n">
-        <v>81.4694251951734</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S14" t="n">
-        <v>29.55420813300721</v>
+        <v>29.5542081330072</v>
       </c>
       <c r="T14" t="n">
-        <v>5.677390942500889</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U14" t="n">
         <v>0.1037558596002446</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6939284878806461</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H15" t="n">
-        <v>6.701888290847293</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I15" t="n">
-        <v>23.89183609589067</v>
+        <v>23.89183609589066</v>
       </c>
       <c r="J15" t="n">
-        <v>65.56102437472369</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K15" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L15" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M15" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N15" t="n">
         <v>180.479234222958</v>
       </c>
       <c r="O15" t="n">
-        <v>165.1032398336027</v>
+        <v>165.1032398336026</v>
       </c>
       <c r="P15" t="n">
-        <v>132.5099057252087</v>
+        <v>132.5099057252086</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.57936276876458</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R15" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S15" t="n">
-        <v>12.88941730778305</v>
+        <v>12.88941730778304</v>
       </c>
       <c r="T15" t="n">
-        <v>2.797018773518919</v>
+        <v>2.797018773518918</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5817663336704294</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H16" t="n">
-        <v>5.172431584815276</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I16" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J16" t="n">
-        <v>41.13087979049936</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K16" t="n">
-        <v>67.59067040280078</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L16" t="n">
-        <v>86.49278746223823</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M16" t="n">
-        <v>91.19451719526558</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N16" t="n">
-        <v>89.02611540613042</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O16" t="n">
-        <v>82.23002687188945</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P16" t="n">
-        <v>70.36199366501263</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R16" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S16" t="n">
-        <v>10.13860056042012</v>
+        <v>10.13860056042011</v>
       </c>
       <c r="T16" t="n">
-        <v>2.485728880228198</v>
+        <v>2.485728880228197</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03173270910929619</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H17" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I17" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J17" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K17" t="n">
         <v>164.9766803203078</v>
@@ -32247,7 +32247,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N17" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O17" t="n">
         <v>218.5211886152591</v>
@@ -32259,13 +32259,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R17" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S17" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T17" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U17" t="n">
         <v>0.1037558596002446</v>
@@ -32305,25 +32305,25 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H18" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I18" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J18" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K18" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L18" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M18" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N18" t="n">
         <v>180.479234222958</v>
@@ -32335,10 +32335,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R18" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S18" t="n">
         <v>12.88941730778304</v>
@@ -32347,7 +32347,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,40 +32384,40 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H19" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I19" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J19" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K19" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L19" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M19" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N19" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O19" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P19" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R19" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S19" t="n">
         <v>10.13860056042011</v>
@@ -32426,7 +32426,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H20" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I20" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J20" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K20" t="n">
         <v>164.9766803203078</v>
@@ -32484,7 +32484,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N20" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O20" t="n">
         <v>218.5211886152591</v>
@@ -32496,13 +32496,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R20" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S20" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T20" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U20" t="n">
         <v>0.1037558596002446</v>
@@ -32542,25 +32542,25 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H21" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I21" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J21" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K21" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L21" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M21" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N21" t="n">
         <v>180.479234222958</v>
@@ -32572,10 +32572,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R21" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S21" t="n">
         <v>12.88941730778304</v>
@@ -32584,7 +32584,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,40 +32621,40 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H22" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I22" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J22" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K22" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L22" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M22" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N22" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O22" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P22" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R22" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S22" t="n">
         <v>10.13860056042011</v>
@@ -32663,7 +32663,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34707,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34783,16 +34783,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N3" t="n">
-        <v>99.8112771299739</v>
-      </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35017,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>113.3808631277495</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>98.12757175471586</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K11" t="n">
-        <v>269.0322418464921</v>
+        <v>269.032241846492</v>
       </c>
       <c r="L11" t="n">
         <v>386.5629597537834</v>
       </c>
       <c r="M11" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N11" t="n">
         <v>439.3515785419015</v>
       </c>
       <c r="O11" t="n">
-        <v>369.2231584563178</v>
+        <v>369.2231584563177</v>
       </c>
       <c r="P11" t="n">
         <v>277.0684912329592</v>
       </c>
       <c r="Q11" t="n">
-        <v>130.0651205780293</v>
+        <v>130.0651205780292</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>33.45228430891401</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L12" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M12" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N12" t="n">
         <v>528.4798964831782</v>
@@ -35506,10 +35506,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P12" t="n">
-        <v>316.9982669508156</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>45.32117857691793</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L13" t="n">
-        <v>114.0828127225544</v>
+        <v>114.0828127225543</v>
       </c>
       <c r="M13" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N13" t="n">
         <v>133.158287785359</v>
@@ -35585,7 +35585,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P13" t="n">
-        <v>67.64055292990612</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>98.12757175471586</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K14" t="n">
-        <v>269.0322418464921</v>
+        <v>269.032241846492</v>
       </c>
       <c r="L14" t="n">
         <v>386.5629597537834</v>
       </c>
       <c r="M14" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N14" t="n">
         <v>439.3515785419015</v>
       </c>
       <c r="O14" t="n">
-        <v>369.2231584563178</v>
+        <v>369.2231584563177</v>
       </c>
       <c r="P14" t="n">
         <v>277.0684912329592</v>
       </c>
       <c r="Q14" t="n">
-        <v>130.0651205780293</v>
+        <v>130.0651205780292</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>33.45228430891446</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K15" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L15" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M15" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N15" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250347</v>
       </c>
       <c r="O15" t="n">
         <v>416.3693146658877</v>
       </c>
       <c r="P15" t="n">
-        <v>316.9982669508156</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,13 +35807,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>45.32117857691793</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L16" t="n">
-        <v>114.0828127225544</v>
+        <v>114.0828127225543</v>
       </c>
       <c r="M16" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N16" t="n">
         <v>133.158287785359</v>
@@ -35822,7 +35822,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P16" t="n">
-        <v>67.64055292990612</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K17" t="n">
         <v>269.032241846492</v>
@@ -35892,7 +35892,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M17" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N17" t="n">
         <v>439.3515785419015</v>
@@ -35965,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>113.4554389912687</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L18" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M18" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N18" t="n">
         <v>528.4798964831782</v>
@@ -35983,7 +35983,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L19" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M19" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N19" t="n">
         <v>133.158287785359</v>
@@ -36059,7 +36059,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P19" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K20" t="n">
         <v>269.032241846492</v>
@@ -36129,7 +36129,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M20" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N20" t="n">
         <v>439.3515785419015</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K21" t="n">
-        <v>113.4554389912687</v>
+        <v>207.3158823613949</v>
       </c>
       <c r="L21" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M21" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N21" t="n">
         <v>528.4798964831782</v>
@@ -36220,7 +36220,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L22" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M22" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N22" t="n">
         <v>133.158287785359</v>
@@ -36296,7 +36296,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P22" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>33.45228430891415</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K24" t="n">
         <v>238.6780311009465</v>
       </c>
       <c r="L24" t="n">
-        <v>382.95671022767</v>
+        <v>192.9196850695264</v>
       </c>
       <c r="M24" t="n">
         <v>499.3966822177399</v>
@@ -36457,7 +36457,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>238.6780311009465</v>
@@ -36688,13 +36688,13 @@
         <v>528.4798964831782</v>
       </c>
       <c r="O27" t="n">
-        <v>226.3322895077443</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P27" t="n">
         <v>316.9982669508155</v>
       </c>
       <c r="Q27" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>33.45228430891415</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>238.6780311009465</v>
@@ -36931,7 +36931,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>33.45228430891415</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>238.6780311009465</v>
@@ -37168,7 +37168,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>113.4554389912688</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L39" t="n">
         <v>382.95671022767</v>
@@ -37642,7 +37642,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q39" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37867,10 +37867,10 @@
         <v>382.95671022767</v>
       </c>
       <c r="M42" t="n">
-        <v>309.3596570595963</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N42" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O42" t="n">
         <v>416.3693146658877</v>
@@ -38025,7 +38025,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M44" t="n">
-        <v>446.9000637909531</v>
+        <v>446.9000637909527</v>
       </c>
       <c r="N44" t="n">
         <v>439.3515785419015</v>
@@ -38037,7 +38037,7 @@
         <v>277.0684912329592</v>
       </c>
       <c r="Q44" t="n">
-        <v>130.0651205780289</v>
+        <v>130.0651205780292</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>238.6780311009466</v>
@@ -38107,7 +38107,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N45" t="n">
-        <v>338.4428713250345</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O45" t="n">
         <v>416.3693146658877</v>
@@ -38116,7 +38116,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
